--- a/experiments/2021_scientific_reports/results/statistics/stats_questionnaire_mdbf_interaction.xlsx
+++ b/experiments/2021_scientific_reports/results/statistics/stats_questionnaire_mdbf_interaction.xlsx
@@ -68,10 +68,10 @@
     <t>GoodBad</t>
   </si>
   <si>
+    <t>post</t>
+  </si>
+  <si>
     <t>pre</t>
-  </si>
-  <si>
-    <t>post</t>
   </si>
   <si>
     <t>CFT</t>
@@ -654,10 +654,10 @@
         <v>18</v>
       </c>
       <c r="D3">
-        <v>0.9478020071983337</v>
+        <v>0.9145</v>
       </c>
       <c r="E3">
-        <v>0.6051058173179626</v>
+        <v>0.2436</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -670,10 +670,10 @@
         <v>19</v>
       </c>
       <c r="D4">
-        <v>0.8974552154541016</v>
+        <v>0.955</v>
       </c>
       <c r="E4">
-        <v>0.1233981847763062</v>
+        <v>0.676</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -688,10 +688,10 @@
         <v>18</v>
       </c>
       <c r="D5">
-        <v>0.9145111441612244</v>
+        <v>0.9478</v>
       </c>
       <c r="E5">
-        <v>0.2436333894729614</v>
+        <v>0.6051</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -704,10 +704,10 @@
         <v>19</v>
       </c>
       <c r="D6">
-        <v>0.9550256133079529</v>
+        <v>0.8975</v>
       </c>
       <c r="E6">
-        <v>0.6759627461433411</v>
+        <v>0.1234</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -724,13 +724,13 @@
         <v>18</v>
       </c>
       <c r="D7">
-        <v>0.8240301012992859</v>
+        <v>0.9382</v>
       </c>
       <c r="E7">
-        <v>0.01780742406845093</v>
+        <v>0.4755</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -740,10 +740,10 @@
         <v>19</v>
       </c>
       <c r="D8">
-        <v>0.965557336807251</v>
+        <v>0.9745</v>
       </c>
       <c r="E8">
-        <v>0.8362318873405457</v>
+        <v>0.9412</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -758,13 +758,13 @@
         <v>18</v>
       </c>
       <c r="D9">
-        <v>0.9382286667823792</v>
+        <v>0.824</v>
       </c>
       <c r="E9">
-        <v>0.4754717350006104</v>
+        <v>0.0178</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -774,10 +774,10 @@
         <v>19</v>
       </c>
       <c r="D10">
-        <v>0.9744585156440735</v>
+        <v>0.9656</v>
       </c>
       <c r="E10">
-        <v>0.9411860108375549</v>
+        <v>0.8362000000000001</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -794,10 +794,10 @@
         <v>18</v>
       </c>
       <c r="D11">
-        <v>0.9498435258865356</v>
+        <v>0.9593</v>
       </c>
       <c r="E11">
-        <v>0.6346979141235352</v>
+        <v>0.7734</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -810,10 +810,10 @@
         <v>19</v>
       </c>
       <c r="D12">
-        <v>0.9095715284347534</v>
+        <v>0.9194</v>
       </c>
       <c r="E12">
-        <v>0.1809256672859192</v>
+        <v>0.2464</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -828,10 +828,10 @@
         <v>18</v>
       </c>
       <c r="D13">
-        <v>0.9592703580856323</v>
+        <v>0.9498</v>
       </c>
       <c r="E13">
-        <v>0.7733638882637024</v>
+        <v>0.6347</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -844,10 +844,10 @@
         <v>19</v>
       </c>
       <c r="D14">
-        <v>0.9194225668907166</v>
+        <v>0.9096</v>
       </c>
       <c r="E14">
-        <v>0.2463900446891785</v>
+        <v>0.1809</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -911,10 +911,10 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>1.663421418636996</v>
+        <v>0.3335</v>
       </c>
       <c r="E3">
-        <v>0.2099605515277639</v>
+        <v>0.5692</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -929,10 +929,10 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>0.3334769149954033</v>
+        <v>1.6634</v>
       </c>
       <c r="E4">
-        <v>0.5692294122746777</v>
+        <v>0.21</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -949,10 +949,10 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>0.7394749266757288</v>
+        <v>0.0203</v>
       </c>
       <c r="E5">
-        <v>0.3987041534053011</v>
+        <v>0.8879</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -967,10 +967,10 @@
         <v>22</v>
       </c>
       <c r="D6">
-        <v>0.02031106385279436</v>
+        <v>0.7395</v>
       </c>
       <c r="E6">
-        <v>0.8879128631567951</v>
+        <v>0.3987</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -987,10 +987,10 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>0.1258947368421054</v>
+        <v>0.3599</v>
       </c>
       <c r="E7">
-        <v>0.7259599157292069</v>
+        <v>0.5544</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -1005,10 +1005,10 @@
         <v>22</v>
       </c>
       <c r="D8">
-        <v>0.3599255698557913</v>
+        <v>0.1259</v>
       </c>
       <c r="E8">
-        <v>0.5544128997849994</v>
+        <v>0.726</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -1093,13 +1093,13 @@
         <v>103.155</v>
       </c>
       <c r="H3">
-        <v>2.355780067022465</v>
+        <v>2.3558</v>
       </c>
       <c r="I3">
-        <v>0.1384620773550671</v>
+        <v>0.1385</v>
       </c>
       <c r="J3">
-        <v>0.09290899592895484</v>
+        <v>0.0929</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1111,7 +1111,7 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>131.2199999999999</v>
+        <v>131.22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1120,16 +1120,16 @@
         <v>23</v>
       </c>
       <c r="G4">
-        <v>131.2199999999999</v>
+        <v>131.22</v>
       </c>
       <c r="H4">
-        <v>9.518480495719066</v>
+        <v>9.5185</v>
       </c>
       <c r="I4">
-        <v>0.005227579144494604</v>
+        <v>0.0052</v>
       </c>
       <c r="J4">
-        <v>0.2927098791400213</v>
+        <v>0.2927</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1144,7 +1144,7 @@
         <v>33</v>
       </c>
       <c r="D5">
-        <v>1.206282051282415</v>
+        <v>1.2063</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1153,16 +1153,16 @@
         <v>23</v>
       </c>
       <c r="G5">
-        <v>1.206282051282415</v>
+        <v>1.2063</v>
       </c>
       <c r="H5">
-        <v>0.08750169316771576</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="I5">
-        <v>0.7700318264153901</v>
+        <v>0.77</v>
       </c>
       <c r="J5">
-        <v>0.003790002674633702</v>
+        <v>0.0038</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1176,7 +1176,7 @@
         <v>7</v>
       </c>
       <c r="D6">
-        <v>9.83705128205132</v>
+        <v>9.8371</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1185,16 +1185,16 @@
         <v>23</v>
       </c>
       <c r="G6">
-        <v>9.83705128205132</v>
+        <v>9.8371</v>
       </c>
       <c r="H6">
-        <v>0.1762304179908584</v>
+        <v>0.1762</v>
       </c>
       <c r="I6">
-        <v>0.6785285188881613</v>
+        <v>0.6785</v>
       </c>
       <c r="J6">
-        <v>0.007603929319500428</v>
+        <v>0.0076</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1218,13 +1218,13 @@
         <v>1404.5</v>
       </c>
       <c r="H7">
-        <v>56.49016058066874</v>
+        <v>56.4902</v>
       </c>
       <c r="I7">
-        <v>1.230174417668779E-07</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.7106560128701843</v>
+        <v>0.7107</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1239,7 +1239,7 @@
         <v>33</v>
       </c>
       <c r="D8">
-        <v>16.15705128205218</v>
+        <v>16.157</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1248,16 +1248,16 @@
         <v>23</v>
       </c>
       <c r="G8">
-        <v>16.15705128205218</v>
+        <v>16.157</v>
       </c>
       <c r="H8">
-        <v>0.6498500686601834</v>
+        <v>0.6498</v>
       </c>
       <c r="I8">
-        <v>0.428423068864383</v>
+        <v>0.4284</v>
       </c>
       <c r="J8">
-        <v>0.02747797837083704</v>
+        <v>0.0275</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1271,7 +1271,7 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>2.371282051282073</v>
+        <v>2.3713</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1280,16 +1280,16 @@
         <v>23</v>
       </c>
       <c r="G9">
-        <v>2.371282051282073</v>
+        <v>2.3713</v>
       </c>
       <c r="H9">
-        <v>0.05384229844323546</v>
+        <v>0.0538</v>
       </c>
       <c r="I9">
-        <v>0.8185595579581161</v>
+        <v>0.8186</v>
       </c>
       <c r="J9">
-        <v>0.002335502158218167</v>
+        <v>0.0023</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1301,7 +1301,7 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>2060.819999999999</v>
+        <v>2060.82</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1310,16 +1310,16 @@
         <v>23</v>
       </c>
       <c r="G10">
-        <v>2060.819999999999</v>
+        <v>2060.82</v>
       </c>
       <c r="H10">
-        <v>65.79660224239193</v>
+        <v>65.7966</v>
       </c>
       <c r="I10">
-        <v>3.37968313431842E-08</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7409810801407029</v>
+        <v>0.741</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1334,7 +1334,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>0.2953846153855011</v>
+        <v>0.2954</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1343,16 +1343,16 @@
         <v>23</v>
       </c>
       <c r="G11">
-        <v>0.2953846153855011</v>
+        <v>0.2954</v>
       </c>
       <c r="H11">
-        <v>0.009430859583584084</v>
+        <v>0.0094</v>
       </c>
       <c r="I11">
-        <v>0.9234782595511118</v>
+        <v>0.9235</v>
       </c>
       <c r="J11">
-        <v>0.0004098693114634805</v>
+        <v>0.0004</v>
       </c>
     </row>
   </sheetData>
@@ -1434,11 +1434,11 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>-3.145581651476052</v>
+        <v>-3.1456</v>
       </c>
       <c r="J3">
         <v>24</v>
@@ -1455,13 +1455,13 @@
         <v>47</v>
       </c>
       <c r="L3">
-        <v>0.004380156661561147</v>
+        <v>0.0044</v>
       </c>
       <c r="M3" t="s">
         <v>48</v>
       </c>
       <c r="N3">
-        <v>-0.5845758476926748</v>
+        <v>-0.5846</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1488,22 +1488,22 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.54848728755143</v>
+        <v>1.5485</v>
       </c>
       <c r="J4">
-        <v>22.61752834887585</v>
+        <v>22.6175</v>
       </c>
       <c r="K4" t="s">
         <v>47</v>
       </c>
       <c r="L4">
-        <v>0.1353850411025258</v>
+        <v>0.1354</v>
       </c>
       <c r="M4" t="s">
         <v>49</v>
       </c>
       <c r="N4">
-        <v>0.5941777110016626</v>
+        <v>0.5942</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1515,7 +1515,7 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
@@ -1530,22 +1530,22 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.433380932676367</v>
+        <v>1.4334</v>
       </c>
       <c r="J5">
-        <v>21.65931776687306</v>
+        <v>21.6593</v>
       </c>
       <c r="K5" t="s">
         <v>47</v>
       </c>
       <c r="L5">
-        <v>0.1660274340662296</v>
+        <v>0.166</v>
       </c>
       <c r="M5" t="s">
         <v>50</v>
       </c>
       <c r="N5">
-        <v>0.5587643806137359</v>
+        <v>0.5588</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1557,7 +1557,7 @@
         <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -1572,22 +1572,22 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.246935137149898</v>
+        <v>1.2469</v>
       </c>
       <c r="J6">
-        <v>21.39840776411274</v>
+        <v>21.3984</v>
       </c>
       <c r="K6" t="s">
         <v>47</v>
       </c>
       <c r="L6">
-        <v>0.2258978083207091</v>
+        <v>0.2259</v>
       </c>
       <c r="M6" t="s">
         <v>51</v>
       </c>
       <c r="N6">
-        <v>0.4756740844278951</v>
+        <v>0.4757</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1604,11 +1604,11 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>-7.571428571428572</v>
+        <v>-7.5714</v>
       </c>
       <c r="J7">
         <v>24</v>
@@ -1625,13 +1625,13 @@
         <v>47</v>
       </c>
       <c r="L7">
-        <v>8.246058872888163E-08</v>
+        <v>0</v>
       </c>
       <c r="M7" t="s">
         <v>52</v>
       </c>
       <c r="N7">
-        <v>-1.666395489872868</v>
+        <v>-1.6664</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1658,22 +1658,22 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>-0.4151600334917392</v>
+        <v>-0.4152</v>
       </c>
       <c r="J8">
-        <v>20.53304407179978</v>
+        <v>20.533</v>
       </c>
       <c r="K8" t="s">
         <v>47</v>
       </c>
       <c r="L8">
-        <v>0.6823307988999838</v>
+        <v>0.6823</v>
       </c>
       <c r="M8" t="s">
         <v>53</v>
       </c>
       <c r="N8">
-        <v>-0.1625134913836253</v>
+        <v>-0.1625</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1685,7 +1685,7 @@
         <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
@@ -1700,22 +1700,22 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>0.08676271386218448</v>
+        <v>0.0868</v>
       </c>
       <c r="J9">
-        <v>22.96902580627007</v>
+        <v>22.969</v>
       </c>
       <c r="K9" t="s">
         <v>47</v>
       </c>
       <c r="L9">
-        <v>0.9316120674844677</v>
+        <v>0.9316</v>
       </c>
       <c r="M9" t="s">
         <v>54</v>
       </c>
       <c r="N9">
-        <v>0.03352233263038391</v>
+        <v>0.0335</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1727,7 +1727,7 @@
         <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -1742,22 +1742,22 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>-0.9294205356236656</v>
+        <v>-0.9294</v>
       </c>
       <c r="J10">
-        <v>18.76508305035751</v>
+        <v>18.7651</v>
       </c>
       <c r="K10" t="s">
         <v>47</v>
       </c>
       <c r="L10">
-        <v>0.3644738393999757</v>
+        <v>0.3645</v>
       </c>
       <c r="M10" t="s">
         <v>55</v>
       </c>
       <c r="N10">
-        <v>-0.3658317458446807</v>
+        <v>-0.3658</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1774,11 +1774,11 @@
         <v>46</v>
       </c>
       <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>-8.284273266187595</v>
+        <v>-8.2843</v>
       </c>
       <c r="J11">
         <v>24</v>
@@ -1795,13 +1795,13 @@
         <v>47</v>
       </c>
       <c r="L11">
-        <v>1.691690845766504E-08</v>
+        <v>0</v>
       </c>
       <c r="M11" t="s">
         <v>56</v>
       </c>
       <c r="N11">
-        <v>-2.101528402859462</v>
+        <v>-2.1015</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1828,22 +1828,22 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <v>-0.2339424648636153</v>
+        <v>-0.2339</v>
       </c>
       <c r="J12">
-        <v>22.70691945523707</v>
+        <v>22.7069</v>
       </c>
       <c r="K12" t="s">
         <v>47</v>
       </c>
       <c r="L12">
-        <v>0.8171260090183889</v>
+        <v>0.8171</v>
       </c>
       <c r="M12" t="s">
         <v>57</v>
       </c>
       <c r="N12">
-        <v>-0.08982780353602407</v>
+        <v>-0.0898</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1855,7 +1855,7 @@
         <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
@@ -1870,22 +1870,22 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <v>-0.1891076286763173</v>
+        <v>-0.1891</v>
       </c>
       <c r="J13">
-        <v>22.93813425086413</v>
+        <v>22.9381</v>
       </c>
       <c r="K13" t="s">
         <v>47</v>
       </c>
       <c r="L13">
-        <v>0.8516717464083996</v>
+        <v>0.8517</v>
       </c>
       <c r="M13" t="s">
         <v>58</v>
       </c>
       <c r="N13">
-        <v>-0.07279711692374961</v>
+        <v>-0.0728</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1897,7 +1897,7 @@
         <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -1912,22 +1912,22 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <v>-0.1884369486583684</v>
+        <v>-0.1884</v>
       </c>
       <c r="J14">
-        <v>22.86785502185709</v>
+        <v>22.8679</v>
       </c>
       <c r="K14" t="s">
         <v>47</v>
       </c>
       <c r="L14">
-        <v>0.85219639024258</v>
+        <v>0.8522</v>
       </c>
       <c r="M14" t="s">
         <v>58</v>
       </c>
       <c r="N14">
-        <v>-0.07292531680384538</v>
+        <v>-0.07290000000000001</v>
       </c>
     </row>
   </sheetData>
